--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465066.8719527814</v>
+        <v>468358.255571715</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346307</v>
+        <v>3854815.050462393</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7632465.605819125</v>
+        <v>7577285.4222118</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>211.1816393399705</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>194.044310400192</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>135.082025980221</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,13 +904,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.07292948584909</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.388379166445441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>157.2973316856977</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>339.9147695566708</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355094</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.901147974459909</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>296.7539869441817</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1385,7 +1387,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>207.5605110160266</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>144.7687412332408</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>328.0226318974064</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>161.4085122120592</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -1819,13 +1821,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W16" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1856,7 +1858,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>296.7613521992776</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>305.6096491809507</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>116.8763835457721</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>59.86755594392113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>147.2866323034272</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>157.6926523830315</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.61260049965443</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>322.2785586424422</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>43.20348927404955</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X25" t="n">
-        <v>108.4701098559616</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>14.1594523916127</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.98510934029159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2645,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556993</v>
       </c>
       <c r="G27" t="n">
         <v>118.8592197488542</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -2773,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>161.4085122120584</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>183.5589842012749</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>59.70065638348639</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -2968,10 +2970,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>332.777064249998</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.79554198164406</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>137.4348246626608</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3199,16 +3201,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>298.82187832452</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>129.6022067968811</v>
       </c>
       <c r="G37" t="n">
-        <v>113.1667354347866</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3515,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>367.1067389526387</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.195297428223774</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -3718,7 +3720,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>247.4392381220094</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>43.56614992953123</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>38.44859076233502</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3958,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>231.1959571853836</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>322.5806213200719</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -4110,16 +4112,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>148.9383611524758</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
@@ -4189,19 +4191,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>5.66230845704269</v>
       </c>
       <c r="V46" t="n">
-        <v>53.03638470914566</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1604.036739400527</v>
+        <v>584.7108077471444</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.036739400527</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.036739400527</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.453214517072</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G2" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N2" t="n">
-        <v>2017.461012945658</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2142.147902636597</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U2" t="n">
-        <v>2142.147902636597</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V2" t="n">
-        <v>1800.041093340115</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="W2" t="n">
-        <v>1800.041093340115</v>
+        <v>1771.148867604883</v>
       </c>
       <c r="X2" t="n">
-        <v>1800.041093340115</v>
+        <v>1381.69626253794</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.036739400527</v>
+        <v>985.2055534585413</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E4" t="n">
         <v>691.8442053644512</v>
@@ -4483,16 +4485,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2058.57031924742</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C5" t="n">
-        <v>1665.394817750351</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.6479314597394</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="C7" t="n">
-        <v>714.463154201306</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="D7" t="n">
-        <v>558.8300411038207</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="E7" t="n">
-        <v>403.2712289630232</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="F7" t="n">
-        <v>245.9452941759961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>823.4566000772434</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>823.4566000772434</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>823.4566000772434</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>823.4566000772434</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>823.4566000772434</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>589.3762778602264</v>
       </c>
       <c r="Y7" t="n">
-        <v>725.6479314597394</v>
+        <v>366.2642166768698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.488471598613</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
@@ -4817,37 +4819,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2206.762311455263</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1951.009581889861</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>1951.009581889861</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>1951.009581889861</v>
       </c>
       <c r="X8" t="n">
-        <v>783.8367236760583</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="Y8" t="n">
-        <v>440.488471598613</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
         <v>696.0247228016668</v>
@@ -4875,58 +4877,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="M9" t="n">
-        <v>1374.529131354181</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N9" t="n">
-        <v>1960.027136360783</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4990,22 +4992,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.27372563130109</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1579.705190930838</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C11" t="n">
-        <v>1579.705190930838</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.953688967018</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E11" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N11" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.195900010237</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.705190930838</v>
+        <v>1989.47786818386</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
         <v>2341.731461975244</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.549595713172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>366.3444777791613</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>366.3444777791613</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>802.5289408923478</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>536.549595713172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>536.549595713172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>536.549595713172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>536.549595713172</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154361</v>
+        <v>1208.706155899125</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1208.706155899125</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1208.706155899125</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2202.609603852878</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>1946.856874287477</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>1604.750064990995</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>1233.751029959283</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X14" t="n">
-        <v>844.2984248923394</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y14" t="n">
-        <v>447.8077158129405</v>
+        <v>1208.706155899125</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5467,19 +5469,19 @@
         <v>386.3238676264566</v>
       </c>
       <c r="U16" t="n">
-        <v>386.3238676264566</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>120.3445224472808</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1259.966434952091</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C17" t="n">
-        <v>866.7909334550213</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>866.7909334550213</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>464.2074085715658</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5528,37 +5530,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.889563461747</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.889563461747</v>
       </c>
       <c r="X17" t="n">
-        <v>2056.951889742887</v>
+        <v>2065.889563461747</v>
       </c>
       <c r="Y17" t="n">
-        <v>1660.461180663488</v>
+        <v>2065.889563461747</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>194.5661265746808</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>678.1322124729941</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M18" t="n">
-        <v>1263.630217479596</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W19" t="n">
-        <v>161.6228038740554</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X19" t="n">
-        <v>161.6228038740554</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.6228038740554</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>941.4337335151823</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C20" t="n">
-        <v>941.4337335151823</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D20" t="n">
-        <v>941.4337335151823</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E20" t="n">
-        <v>941.4337335151823</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T20" t="n">
-        <v>2901.449916432349</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="U20" t="n">
-        <v>2840.977637701115</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="V20" t="n">
-        <v>2498.870828404634</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="W20" t="n">
-        <v>2127.871793372921</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.419188305978</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y20" t="n">
-        <v>1341.928479226579</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2697.636305331118</v>
+        <v>206.5984775591512</v>
       </c>
       <c r="C22" t="n">
-        <v>2527.431187397107</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D22" t="n">
-        <v>2371.798074299622</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E22" t="n">
-        <v>2216.239262158824</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205776</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205776</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W22" t="n">
-        <v>3105.956385205776</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X22" t="n">
-        <v>3105.956385205776</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="Y22" t="n">
-        <v>2882.84432402242</v>
+        <v>206.5984775591512</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2082.713911529263</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C23" t="n">
-        <v>2082.713911529263</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.180013910635</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.596489027179</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2850.203655640375</v>
+        <v>2322.008616921574</v>
       </c>
       <c r="V23" t="n">
-        <v>2850.203655640375</v>
+        <v>2322.008616921574</v>
       </c>
       <c r="W23" t="n">
-        <v>2479.204620608662</v>
+        <v>1951.009581889861</v>
       </c>
       <c r="X23" t="n">
-        <v>2479.204620608662</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="Y23" t="n">
-        <v>2082.713911529263</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>381.858273766342</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.629923393023</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.407894603582</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>678.1273584875689</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>678.1273584875689</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>394.7969564187466</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X25" t="n">
-        <v>285.2311888874722</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>402.7261067268556</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>835.3376237683314</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="C26" t="n">
-        <v>835.3376237683314</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="D26" t="n">
-        <v>449.8964949849991</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>937.1983701178301</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>2118.077574438405</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.541695780699</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W26" t="n">
-        <v>1652.542660748986</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="X26" t="n">
-        <v>1263.090055682043</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="Y26" t="n">
-        <v>1235.832369479728</v>
+        <v>1339.781895001286</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F27" t="n">
         <v>305.0574584171666</v>
@@ -6297,22 +6299,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631986</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
         <v>1443.506853769801</v>
@@ -6345,10 +6347,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X27" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6409,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>834.4501588705843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>598.7311070388184</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>313.2923152807194</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1969.157795997781</v>
+        <v>210.351871325845</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.982294500712</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.54116571738</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E29" t="n">
-        <v>787.9576408339242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F29" t="n">
-        <v>371.063202363902</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G29" t="n">
-        <v>371.063202363902</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>91.34618151762533</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>450.3285375450872</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>943.648829263616</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1489.649729308197</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>2017.461012945658</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.64850507718</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y29" t="n">
-        <v>1969.157795997781</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1848.237780791341</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C31" t="n">
-        <v>1848.237780791341</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D31" t="n">
-        <v>1848.237780791341</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E31" t="n">
-        <v>1848.237780791341</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F31" t="n">
-        <v>1787.934087474688</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G31" t="n">
-        <v>1619.680033574134</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.237780791341</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y31" t="n">
-        <v>1848.237780791341</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1279.953688967018</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C32" t="n">
-        <v>1279.953688967018</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>550.9450990378335</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="L32" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M32" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N32" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2296.158058631075</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2296.158058631075</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2040.405329065674</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>2040.405329065674</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W32" t="n">
-        <v>1669.406294033961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X32" t="n">
-        <v>1279.953688967018</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y32" t="n">
-        <v>1279.953688967018</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>678.132212472995</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.7599926430961</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C34" t="n">
-        <v>948.7599926430961</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D34" t="n">
-        <v>847.4030175052487</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>204.6389048885706</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>877.3701640835627</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C35" t="n">
-        <v>877.3701640835627</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D35" t="n">
-        <v>877.3701640835627</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E35" t="n">
         <v>877.3701640835627</v>
@@ -6926,61 +6928,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>91.34618151762533</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
-        <v>450.3285375450872</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>943.648829263616</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1489.649729308197</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N35" t="n">
-        <v>2017.461012945658</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O35" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>2063.808223941302</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>2063.808223941302</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X35" t="n">
-        <v>1674.355618874358</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y35" t="n">
-        <v>1277.86490979496</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>71.09994889437468</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6660347926879</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.16403979929</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.662044805892</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="C37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="D37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="E37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="F37" t="n">
-        <v>161.6228038740554</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7123,22 +7125,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6228038740554</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.6228038740554</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1623.046950069302</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C38" t="n">
-        <v>1623.046950069302</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D38" t="n">
-        <v>1237.60582128597</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E38" t="n">
-        <v>835.022296402514</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F38" t="n">
-        <v>418.1278579324918</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
@@ -7181,43 +7183,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N38" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V38" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X38" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y38" t="n">
-        <v>2023.541695780699</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L39" t="n">
         <v>530.8790559998569</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>224.7860652357804</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>54.58094730176964</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>54.58094730176964</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>54.58094730176964</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>54.58094730176964</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>54.58094730176964</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7357,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>745.9439088256454</v>
+        <v>834.4501588705843</v>
       </c>
       <c r="T40" t="n">
-        <v>510.2248569938795</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U40" t="n">
-        <v>224.7860652357804</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V40" t="n">
-        <v>224.7860652357804</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W40" t="n">
-        <v>224.7860652357804</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X40" t="n">
-        <v>224.7860652357804</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7860652357804</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1709.401029800382</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.401029800382</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D41" t="n">
-        <v>1323.95990101705</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E41" t="n">
-        <v>921.3763761335942</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F41" t="n">
-        <v>504.481937663572</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>91.31918215157515</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V41" t="n">
-        <v>2109.895775511779</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W41" t="n">
-        <v>2109.895775511779</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X41" t="n">
-        <v>2109.895775511779</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="Y41" t="n">
-        <v>2109.895775511779</v>
+        <v>1006.775773684051</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
         <v>367.0521161637701</v>
@@ -7497,43 +7499,43 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068686</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N42" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7597,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>397.3418557058213</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>590.1211328167069</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C44" t="n">
-        <v>590.1211328167069</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D44" t="n">
-        <v>590.1211328167069</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E44" t="n">
-        <v>590.1211328167069</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F44" t="n">
-        <v>590.1211328167069</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G44" t="n">
-        <v>356.589862932481</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>59.5428548967987</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>418.5252109242605</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>820.7970155990351</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1223.06882027381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1625.340624948584</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1458.827069889635</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>1235.326467449052</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U44" t="n">
-        <v>979.5737378836501</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V44" t="n">
-        <v>979.5737378836501</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W44" t="n">
-        <v>979.5737378836501</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X44" t="n">
-        <v>590.1211328167069</v>
+        <v>2039.809493642763</v>
       </c>
       <c r="Y44" t="n">
-        <v>590.1211328167069</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>831.8727956390026</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>681.2185651990948</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>551.1295978205751</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>414.6831069314629</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>290.2513008145947</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>170.1914828864591</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>81.89406648706009</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L45" t="n">
-        <v>434.7786171737463</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M45" t="n">
-        <v>434.7786171737463</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N45" t="n">
-        <v>586.4319240441446</v>
+        <v>1814.990048232788</v>
       </c>
       <c r="O45" t="n">
-        <v>988.7037287189191</v>
+        <v>2331.510330823769</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1490.409947848453</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1313.426136047362</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.426136047362</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1313.426136047362</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.426136047362</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>1162.983347004457</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>983.6691300799639</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>114.3418536089136</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>278.4694934827133</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>464.7610718209773</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>647.9507058521865</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>810.6554728938945</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>930.5316386704731</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>933.953835040524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>810.052845673101</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>607.2367618556505</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T46" t="n">
-        <v>371.5177100238845</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U46" t="n">
-        <v>86.07891826578549</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="V46" t="n">
-        <v>32.50681249897168</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W46" t="n">
-        <v>32.50681249897168</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X46" t="n">
-        <v>32.50681249897168</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>580.6283116859817</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8061,19 +8063,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>588.303013563887</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>440.196945759487</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>265.8235510992406</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8465,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8532,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>621.5900809302183</v>
+        <v>674.5394322581651</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,25 +8692,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>540.4718524873235</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,16 +8771,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536984</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8927,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8939,10 +8941,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9006,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577839</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9240,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.0799396297069</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>344.5555886567305</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9644,7 +9646,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389944</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9653,10 +9655,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9720,22 +9722,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>384.8576652182069</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
-        <v>405.2384673331027</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>399.6354845339704</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9954,16 +9956,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M27" t="n">
-        <v>99.85242174740807</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>162.1578292717216</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10124,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10191,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>265.8235510992399</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,19 +10351,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>271.1401458256677</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
@@ -10428,22 +10430,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>588.3030135638863</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>162.1578292717216</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10592,13 +10594,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324069</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10665,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>113.6241866392233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>440.196945759487</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,16 +10831,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802264</v>
       </c>
       <c r="O38" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10908,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3299123769229</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11145,13 +11147,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O42" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.9889716775249</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>238.5572713091144</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>178.0621071421282</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.4814915884129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,13 +22792,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22844,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>157.4301372688216</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>199.3995438128307</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -23005,7 +23007,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23072,22 +23074,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63.96826473047983</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.61103243193406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,7 +23199,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>125.862333134833</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23230,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23261,7 +23263,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>84.83273055131724</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23306,7 +23308,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -23318,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>159.7285336653688</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23434,10 +23436,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>137.8156626072773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23501,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>70.53505773721452</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23546,13 +23548,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>59.85708420411831</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W16" t="n">
-        <v>208.1958612258543</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23789,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>41.92438900423917</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>79.948429835323</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.18920306960163</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>104.004557025751</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>193.3276463258262</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>220.0024123779683</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>10.81041437163915</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>144.1400749395023</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24187,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>59.30815885305668</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>209.9917129956978</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24418,16 +24420,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X25" t="n">
-        <v>123.2694091388851</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>398.5660416937093</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>365.5406926483133</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24649,7 +24651,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>227.8352342700403</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>137.2832357278993</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96.05201905567039</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,10 +24858,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>48.80965324550095</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24965,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>96.05287752671587</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>45.9211138417275</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,16 +25089,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25154,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>39.86386287899683</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="36">
@@ -25321,19 +25323,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>26.15046864227571</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40477792676228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.92438900423815</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25448,7 +25450,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25457,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25564,7 +25566,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7284680998972</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25597,7 +25599,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>141.8045083600893</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>277.276069999643</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25676,19 +25678,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25786,13 +25788,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>130.0544759923357</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25837,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8351707714932</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,13 +25915,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25928,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>62.97745769620184</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>38.47564572101263</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>276.9220953834754</v>
       </c>
       <c r="V46" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655297.4891333304</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655297.4891333305</v>
+        <v>655297.4891333304</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738255.5654626064</v>
+        <v>655297.4891333304</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738255.5654626063</v>
+        <v>655297.4891333301</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655297.4891333305</v>
+        <v>655297.4891333304</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655297.4891333302</v>
+        <v>655297.4891333301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655297.4891333303</v>
+        <v>655297.4891333298</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655297.4891333305</v>
+        <v>655297.4891333302</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655297.4891333301</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528150.6887291631</v>
+        <v>655297.4891333304</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>158101.391659894</v>
       </c>
       <c r="C2" t="n">
+        <v>158101.391659894</v>
+      </c>
+      <c r="D2" t="n">
         <v>158101.3916598939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>158101.391659894</v>
       </c>
       <c r="E2" t="n">
         <v>158101.391659894</v>
@@ -26329,19 +26331,19 @@
         <v>158101.391659894</v>
       </c>
       <c r="H2" t="n">
-        <v>178111.7448695732</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="I2" t="n">
-        <v>178111.7448695732</v>
+        <v>158101.391659894</v>
       </c>
       <c r="J2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="K2" t="n">
         <v>158101.3916598939</v>
       </c>
       <c r="L2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
@@ -26353,7 +26355,7 @@
         <v>158101.3916598939</v>
       </c>
       <c r="P2" t="n">
-        <v>127432.2573435513</v>
+        <v>158101.3916598939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,19 +26435,19 @@
         <v>23353.24319649382</v>
       </c>
       <c r="H4" t="n">
-        <v>26357.40659176976</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="I4" t="n">
-        <v>26357.40659176976</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="J4" t="n">
         <v>23353.24319649382</v>
       </c>
       <c r="K4" t="n">
-        <v>23353.24319649382</v>
+        <v>23353.24319649381</v>
       </c>
       <c r="L4" t="n">
-        <v>23353.24319649382</v>
+        <v>23353.24319649381</v>
       </c>
       <c r="M4" t="n">
         <v>23353.24319649382</v>
@@ -26457,7 +26459,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="P4" t="n">
-        <v>18748.87216353321</v>
+        <v>23353.24319649382</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133033.114805518</v>
+        <v>-133033.1148055178</v>
       </c>
       <c r="C6" t="n">
-        <v>65162.69118622696</v>
+        <v>65162.69118622704</v>
       </c>
       <c r="D6" t="n">
-        <v>65162.69118622702</v>
+        <v>65162.69118622698</v>
       </c>
       <c r="E6" t="n">
-        <v>98790.291186227</v>
+        <v>98790.29118622703</v>
       </c>
       <c r="F6" t="n">
         <v>98790.29118622703</v>
       </c>
       <c r="G6" t="n">
-        <v>98790.291186227</v>
+        <v>98790.29118622703</v>
       </c>
       <c r="H6" t="n">
-        <v>54608.36901527154</v>
+        <v>98790.29118622697</v>
       </c>
       <c r="I6" t="n">
-        <v>104543.8012226757</v>
+        <v>98790.29118622703</v>
       </c>
       <c r="J6" t="n">
-        <v>-7524.864432284874</v>
+        <v>-55949.14317937635</v>
       </c>
       <c r="K6" t="n">
-        <v>98790.29118622697</v>
+        <v>98790.29118622695</v>
       </c>
       <c r="L6" t="n">
-        <v>98790.29118622703</v>
+        <v>98790.29118622701</v>
       </c>
       <c r="M6" t="n">
         <v>98790.29118622703</v>
       </c>
       <c r="N6" t="n">
-        <v>98790.29118622694</v>
+        <v>98790.29118622701</v>
       </c>
       <c r="O6" t="n">
+        <v>98790.29118622701</v>
+      </c>
+      <c r="P6" t="n">
         <v>98790.29118622697</v>
-      </c>
-      <c r="P6" t="n">
-        <v>83978.20768079962</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>431.5098203481975</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34781,19 +34783,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9158915145751</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705981</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>180.451438245074</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>529.2029588809064</v>
+        <v>582.1523102088532</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>390.9080150632272</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>330.4341341043865</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,10 +35661,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>292.470543168895</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.48300429637357</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>259.1834758025638</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36364,7 +36366,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412671</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36373,10 +36375,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>292.470543168895</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5509084442139</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>250.071647109874</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M27" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>44.47799132937548</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36844,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.47799132937548</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37312,13 +37314,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346797</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.02725130588997</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>347.5093868705981</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,16 +37551,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424423</v>
       </c>
       <c r="O38" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37628,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>128.0817426464313</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37865,13 +37867,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O42" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>27.30913373517881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>153.1851584549478</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468358.255571715</v>
+        <v>462650.0997638291</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462393</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7577285.4222118</v>
+        <v>7577285.422211801</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>211.1816393399705</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>340.4340932365988</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -746,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.082025980221</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6846499321096</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>179.1061630159701</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>22.45781091125317</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>349.7480363891204</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>10.75611269968891</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>1.388379166445441</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>108.9419179123588</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>157.2973316856977</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1344,16 +1344,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>5.901147974459903</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>77.46337679815042</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>207.5605110160266</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H12" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I12" t="n">
         <v>48.89338144820752</v>
@@ -1578,19 +1578,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>223.8666172744861</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>328.0226318974064</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>164.3898041407502</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.2043940499487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>296.7613521992776</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,10 +2067,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>147.2866323034272</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>292.23405377024</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>157.6926523830315</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>260.9619194389825</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>43.20348927404955</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>87.95308749070819</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>181.5930921373951</v>
       </c>
       <c r="F26" t="n">
-        <v>14.1594523916127</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -2611,16 +2611,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556993</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
         <v>118.8592197488542</v>
@@ -2654,7 +2654,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>120.8362368994005</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>374.6746730530368</v>
       </c>
       <c r="C29" t="n">
-        <v>161.4085122120584</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>332.777064249998</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>128.1115535044846</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.4348246626608</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>168.5582474499806</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>289.1043232126777</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>54.16209836146492</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.6022067968811</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>289.1043232126777</v>
+        <v>221.0159803253478</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -3720,10 +3720,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>9.126850821345537</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>247.4392381220094</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -3805,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>90.49856892715118</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.650064181158449</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>322.5806213200719</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>5.66230845704269</v>
+        <v>258.8281052531713</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>584.7108077471444</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C2" t="n">
-        <v>371.396020535053</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="D2" t="n">
-        <v>371.396020535053</v>
+        <v>793.769316436109</v>
       </c>
       <c r="E2" t="n">
-        <v>371.396020535053</v>
+        <v>391.1857915526535</v>
       </c>
       <c r="F2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712866</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1771.148867604883</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1381.69626253794</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y2" t="n">
-        <v>985.2055534585413</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>2021.614212075287</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>824.8590032756731</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="C4" t="n">
-        <v>824.8590032756731</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D4" t="n">
-        <v>824.8590032756731</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V4" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8590032756731</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.8590032756731</v>
+        <v>358.5048953398264</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.9296003819453</v>
+        <v>472.5811524711134</v>
       </c>
       <c r="C5" t="n">
-        <v>432.7540988848759</v>
+        <v>472.5811524711134</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154359</v>
+        <v>472.5811524711134</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154359</v>
+        <v>69.99762758765792</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712866</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415867</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W5" t="n">
-        <v>2012.367660239684</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.915055172741</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1226.424346093342</v>
+        <v>873.0758981825103</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M6" t="n">
-        <v>963.7331842818107</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4688,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.2642166768698</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C7" t="n">
-        <v>366.2642166768698</v>
+        <v>369.2150935835632</v>
       </c>
       <c r="D7" t="n">
-        <v>366.2642166768698</v>
+        <v>369.2150935835632</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2642166768698</v>
+        <v>213.6562814427657</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2642166768698</v>
+        <v>213.6562814427657</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>213.6562814427657</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>58.17773040425968</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4752,25 +4752,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>823.4566000772434</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>823.4566000772434</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>823.4566000772434</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>823.4566000772434</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W7" t="n">
-        <v>823.4566000772434</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X7" t="n">
-        <v>589.3762778602264</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y7" t="n">
-        <v>366.2642166768698</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.5715220321224</v>
+        <v>542.7964402104908</v>
       </c>
       <c r="C8" t="n">
-        <v>371.396020535053</v>
+        <v>542.7964402104908</v>
       </c>
       <c r="D8" t="n">
-        <v>371.396020535053</v>
+        <v>157.3553114271585</v>
       </c>
       <c r="E8" t="n">
-        <v>371.396020535053</v>
+        <v>157.3553114271585</v>
       </c>
       <c r="F8" t="n">
-        <v>371.396020535053</v>
+        <v>157.3553114271585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2206.762311455263</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1951.009581889861</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1951.009581889861</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.009581889861</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>1561.556976822918</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>1165.066267743519</v>
+        <v>943.2911859218877</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154359</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083082</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.14176221491</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1989.47786818386</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.47786818386</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.036739400527</v>
+        <v>449.6418556846999</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>449.6418556846999</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G11" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.421412053329</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T11" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V11" t="n">
-        <v>2199.13495001823</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W11" t="n">
-        <v>1989.47786818386</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X11" t="n">
-        <v>1989.47786818386</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1989.47786818386</v>
+        <v>835.0829844680321</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5226,25 +5226,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208.706155899125</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.706155899125</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D14" t="n">
-        <v>1208.706155899125</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W14" t="n">
-        <v>1994.649470045467</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="X14" t="n">
-        <v>1605.196864978524</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="Y14" t="n">
-        <v>1208.706155899125</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068685</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N15" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805891</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1665.394817750351</v>
+        <v>1556.161810619593</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>1162.986309122523</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>777.5451803391909</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>777.5451803391909</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>360.6507418691687</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>360.6507418691687</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V17" t="n">
-        <v>2065.889563461747</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W17" t="n">
-        <v>2065.889563461747</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X17" t="n">
-        <v>2065.889563461747</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="Y17" t="n">
-        <v>2065.889563461747</v>
+        <v>1956.65655633099</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>952.550121170372</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>682.7806474639203</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>165.3699231780811</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.9296003819453</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C20" t="n">
-        <v>432.7540988848759</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.142036303752</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U20" t="n">
-        <v>2161.142036303752</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V20" t="n">
-        <v>2161.142036303752</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.367660239684</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.915055172741</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.424346093342</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="21">
@@ -5825,13 +5825,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
         <v>367.0521161637701</v>
@@ -5840,10 +5840,10 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.14176221491</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O21" t="n">
         <v>1725.662044805891</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.5984775591512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>713.0409408113302</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V22" t="n">
-        <v>713.0409408113302</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W22" t="n">
-        <v>429.7105387425078</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X22" t="n">
-        <v>429.7105387425078</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.5984775591512</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>764.5715220321224</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="C23" t="n">
-        <v>371.396020535053</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="D23" t="n">
-        <v>371.396020535053</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="E23" t="n">
-        <v>371.396020535053</v>
+        <v>1279.305179414313</v>
       </c>
       <c r="F23" t="n">
-        <v>371.396020535053</v>
+        <v>862.4107409442903</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>449.2479854322934</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1397.797620547389</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N23" t="n">
-        <v>1925.608904184851</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2322.008616921574</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V23" t="n">
-        <v>2322.008616921574</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W23" t="n">
-        <v>1951.009581889861</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X23" t="n">
-        <v>1561.556976822918</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y23" t="n">
-        <v>1165.066267743519</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.164039799289</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
         <v>1725.662044805891</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6177,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W25" t="n">
-        <v>859.9184901272292</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>625.8381679102123</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>402.7261067268556</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1339.781895001286</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="C26" t="n">
-        <v>1339.781895001286</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="D26" t="n">
-        <v>1339.781895001286</v>
+        <v>369.0774528044274</v>
       </c>
       <c r="E26" t="n">
-        <v>937.1983701178301</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F26" t="n">
-        <v>922.895892954585</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G26" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H26" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>1681.888704297767</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V26" t="n">
-        <v>1339.781895001286</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W26" t="n">
-        <v>1339.781895001286</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X26" t="n">
-        <v>1339.781895001286</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y26" t="n">
-        <v>1339.781895001286</v>
+        <v>1548.188828796226</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L27" t="n">
-        <v>272.5108437565968</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X27" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6411,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T28" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U28" t="n">
-        <v>427.6021490532311</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6228038740554</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154359</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154359</v>
+        <v>623.887103876756</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154359</v>
+        <v>400.7750426933993</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>210.351871325845</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="C29" t="n">
-        <v>47.31297010154359</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
         <v>406.2953261290054</v>
@@ -6478,37 +6478,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511778</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.788966215297</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W29" t="n">
-        <v>1396.789931183584</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X29" t="n">
-        <v>1007.337326116641</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y29" t="n">
-        <v>610.8466170372419</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068685</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N30" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
         <v>2131.283413522289</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6654,19 +6654,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.21044521944</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C32" t="n">
-        <v>786.0349437223708</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="D32" t="n">
-        <v>449.8964949849991</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154359</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154359</v>
+        <v>589.8813352140299</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>176.7185797020331</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>176.7185797020331</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>318.7636682303378</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.195900010236</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y32" t="n">
-        <v>1579.705190930837</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L33" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631988</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>204.6389048885706</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U34" t="n">
-        <v>824.8590032756731</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V34" t="n">
-        <v>824.8590032756731</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W34" t="n">
-        <v>824.8590032756731</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="X34" t="n">
-        <v>824.8590032756731</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1673.129190464088</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="C35" t="n">
-        <v>1279.953688967018</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
         <v>406.2953261290054</v>
@@ -6946,43 +6946,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y35" t="n">
-        <v>2073.623936175485</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068685</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N36" t="n">
-        <v>2021.614212075287</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O36" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.4295905742738</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="C37" t="n">
-        <v>665.4295905742738</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="D37" t="n">
-        <v>665.4295905742738</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E37" t="n">
-        <v>665.4295905742738</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F37" t="n">
-        <v>534.5182705774242</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G37" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7125,22 +7125,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U37" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V37" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W37" t="n">
-        <v>665.4295905742738</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="X37" t="n">
-        <v>665.4295905742738</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.4295905742738</v>
+        <v>427.6021490532311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1673.129190464088</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="C38" t="n">
-        <v>1279.953688967018</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M38" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.648505077179</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.648505077179</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2073.623936175485</v>
+        <v>864.7021542829627</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M39" t="n">
-        <v>623.6437572083082</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7359,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>834.4501588705843</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>598.7311070388184</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U40" t="n">
-        <v>313.2923152807194</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V40" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1006.775773684051</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C41" t="n">
-        <v>756.8371493183852</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D41" t="n">
-        <v>371.396020535053</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E41" t="n">
-        <v>371.396020535053</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>1975.634347577647</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>1719.881618012245</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V41" t="n">
-        <v>1377.774808715764</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W41" t="n">
-        <v>1006.775773684051</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X41" t="n">
-        <v>1006.775773684051</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="Y41" t="n">
-        <v>1006.775773684051</v>
+        <v>877.3701640835627</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6182020620834</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N42" t="n">
         <v>1209.14176221491</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>882.0615091076409</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>596.6227173495417</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>330.643372170366</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1242.824038851968</v>
+        <v>828.606432888166</v>
       </c>
       <c r="C44" t="n">
-        <v>849.6485373548981</v>
+        <v>435.4309313910965</v>
       </c>
       <c r="D44" t="n">
-        <v>464.2074085715658</v>
+        <v>49.98980260776426</v>
       </c>
       <c r="E44" t="n">
-        <v>464.2074085715658</v>
+        <v>49.98980260776426</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154359</v>
+        <v>49.98980260776426</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>49.98980260776426</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>49.98980260776426</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M44" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.648505077179</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.648505077179</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X44" t="n">
-        <v>2039.809493642763</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.318784563364</v>
+        <v>828.606432888166</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L45" t="n">
-        <v>643.9940382195842</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M45" t="n">
-        <v>1229.492043226186</v>
+        <v>745.9259573278732</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.990048232788</v>
+        <v>1331.423962334475</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.510330823769</v>
+        <v>1847.944244925457</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7833,25 +7833,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>504.5053535019172</v>
+        <v>451.5984102525713</v>
       </c>
       <c r="V46" t="n">
-        <v>504.5053535019172</v>
+        <v>451.5984102525713</v>
       </c>
       <c r="W46" t="n">
-        <v>504.5053535019172</v>
+        <v>451.5984102525713</v>
       </c>
       <c r="X46" t="n">
-        <v>270.4250312849002</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140705</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>151.5659933015362</v>
       </c>
       <c r="O3" t="n">
-        <v>440.196945759487</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,10 +8218,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140705</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>569.9919810238536</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>605.1654020112569</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581651</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>385.1581020577839</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9175,16 +9175,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>344.5555886567305</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9488,13 +9488,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577837</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>652.9391957389944</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,13 +9725,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>384.8576652182069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9959,13 +9959,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>317.5329465084872</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>667.5244230630205</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10126,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N30" t="n">
-        <v>265.8235510992399</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>271.1401458256677</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>588.3030135638863</v>
+        <v>560.2818744604604</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10594,13 +10594,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>301.2346582324069</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>440.196945759487</v>
+        <v>167.9390098072622</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>500.9472399802264</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>186.088840441687</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11074,13 +11074,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>557.9550992680668</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11381,22 +11381,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>121.5663691156888</v>
+        <v>373.2845452201562</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>178.0621071421282</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>72.29140084872324</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22600,7 +22600,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22609,7 +22609,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.31857408727987</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22770,7 +22770,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>52.63335597887658</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>390.2676831740688</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22834,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.54100829227502</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22944,13 +22944,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>121.007368409604</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.3995438128307</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23007,10 +23007,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23035,10 +23035,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>300.089210044518</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>63.96826473047983</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>257.4184037529241</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>335.2621172871716</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7285336653688</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,19 +23500,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>70.53505773721452</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>202.8992405406452</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>10.63782587922549</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23791,10 +23791,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>41.92438900423917</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23943,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>220.0024123779683</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>93.32402524603373</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>10.81041437163915</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>59.88030049019176</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>209.9917129956978</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>192.544010557426</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>216.9645974972258</v>
       </c>
       <c r="F26" t="n">
-        <v>398.5660416937093</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24651,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>110.9032820954462</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>21.81512520124613</v>
       </c>
       <c r="C29" t="n">
-        <v>227.8352342700403</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24697,7 +24697,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>48.80965324550095</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>8.842192233975254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.9211138417275</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25143,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>75.14026680256438</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>227.9315508043023</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.4214787759271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>99.91468360504547</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>26.15046864227571</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.4214787759271</v>
+        <v>171.509821663257</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25599,7 +25599,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>271.3702472267886</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,22 +25630,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>141.8045083600893</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>295.0595100891226</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25839,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>167.3303626133475</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>134.3036815573014</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25924,13 +25924,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>62.97745769620184</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26073,13 +26073,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>276.9220953834754</v>
+        <v>23.75629858734675</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655297.4891333302</v>
+        <v>655297.4891333303</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655297.4891333303</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655297.4891333305</v>
+        <v>655297.4891333306</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655297.4891333304</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655297.4891333301</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655297.4891333304</v>
+        <v>655297.4891333302</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655297.4891333301</v>
+        <v>655297.4891333306</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655297.4891333298</v>
+        <v>655297.4891333306</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655297.4891333302</v>
+        <v>655297.4891333303</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655297.4891333305</v>
+        <v>655297.4891333306</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655297.4891333304</v>
+        <v>655297.4891333305</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>158101.391659894</v>
       </c>
       <c r="D2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="E2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="F2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="G2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="H2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="I2" t="n">
         <v>158101.391659894</v>
@@ -26340,22 +26340,22 @@
         <v>158101.391659894</v>
       </c>
       <c r="K2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="L2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="N2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="O2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="P2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26444,10 +26444,10 @@
         <v>23353.24319649382</v>
       </c>
       <c r="K4" t="n">
-        <v>23353.24319649381</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="L4" t="n">
-        <v>23353.24319649381</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="M4" t="n">
         <v>23353.24319649382</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133033.1148055178</v>
+        <v>-133707.140931738</v>
       </c>
       <c r="C6" t="n">
-        <v>65162.69118622704</v>
+        <v>64488.66506000698</v>
       </c>
       <c r="D6" t="n">
-        <v>65162.69118622698</v>
+        <v>64488.66506000704</v>
       </c>
       <c r="E6" t="n">
-        <v>98790.29118622703</v>
+        <v>98116.26506000711</v>
       </c>
       <c r="F6" t="n">
-        <v>98790.29118622703</v>
+        <v>98116.26506000705</v>
       </c>
       <c r="G6" t="n">
-        <v>98790.29118622703</v>
+        <v>98116.26506000699</v>
       </c>
       <c r="H6" t="n">
-        <v>98790.29118622697</v>
+        <v>98116.26506000699</v>
       </c>
       <c r="I6" t="n">
-        <v>98790.29118622703</v>
+        <v>98116.26506000696</v>
       </c>
       <c r="J6" t="n">
-        <v>-55949.14317937635</v>
+        <v>-56623.16930559646</v>
       </c>
       <c r="K6" t="n">
-        <v>98790.29118622695</v>
+        <v>98116.26506000699</v>
       </c>
       <c r="L6" t="n">
-        <v>98790.29118622701</v>
+        <v>98116.26506000708</v>
       </c>
       <c r="M6" t="n">
-        <v>98790.29118622703</v>
+        <v>98116.26506000696</v>
       </c>
       <c r="N6" t="n">
-        <v>98790.29118622701</v>
+        <v>98116.26506000702</v>
       </c>
       <c r="O6" t="n">
-        <v>98790.29118622701</v>
+        <v>98116.26506000702</v>
       </c>
       <c r="P6" t="n">
-        <v>98790.29118622697</v>
+        <v>98116.26506000699</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835787</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="O3" t="n">
-        <v>347.5093868705981</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835787</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>512.477843122368</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088532</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>292.470543168895</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35895,16 +35895,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>259.1834758025638</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>503.2141441412671</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,13 +36445,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>292.470543168895</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>227.4725996515689</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>582.1523102088539</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N30" t="n">
-        <v>180.4514382450733</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>128.0817426464304</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>495.9158915145745</v>
+        <v>467.8947524111485</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>151.5096066346797</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>347.5093868705981</v>
+        <v>75.25145091837332</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>351.8287486424423</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>93.70171839237511</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37794,13 +37794,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>467.8947524111485</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38031,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>34.48300429637414</v>
+        <v>286.2011804008416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
